--- a/mid_size_industrial_prices.xlsx
+++ b/mid_size_industrial_prices.xlsx
@@ -1,31 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shakhawathossainturag/Desktop/Uni/Code_Snippets/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A98C36E-DD6A-DE4E-A59E-7D82CE185992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
+    <t>price_mid</t>
+  </si>
+  <si>
     <t>year_small</t>
-  </si>
-  <si>
-    <t>price_mid</t>
   </si>
   <si>
     <t>2016</t>
@@ -46,8 +40,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,7 +52,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,14 +104,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -402,64 +391,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>10.5525</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>11.324999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>10.64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>11.317500000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13.355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>12.6425</v>
+        <v>15.215</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mid_size_industrial_prices.xlsx
+++ b/mid_size_industrial_prices.xlsx
@@ -411,7 +411,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12.735</v>
+        <v>10.5525</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -419,7 +419,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>12.69</v>
+        <v>11.325</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -427,7 +427,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>12.32</v>
+        <v>10.64</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -435,7 +435,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>13.355</v>
+        <v>11.3175</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -443,7 +443,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>15.215</v>
+        <v>12.6425</v>
       </c>
     </row>
   </sheetData>
